--- a/Procesados/Control_Asistencia.xlsx
+++ b/Procesados/Control_Asistencia.xlsx
@@ -416,12 +416,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
     </row>
@@ -447,12 +447,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
     </row>
@@ -478,12 +478,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
     </row>
@@ -540,12 +540,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
     </row>
@@ -633,12 +633,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>CORRECTO</t>
         </is>
       </c>
     </row>
